--- a/bib_data/1990-2017/all_years [Nodes]_cluster_totals.xlsx
+++ b/bib_data/1990-2017/all_years [Nodes]_cluster_totals.xlsx
@@ -927,42 +927,42 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F26">
-        <v>34.48275862068966</v>
+        <v>34.65608465608466</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>130</v>
       </c>
       <c r="E27">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F27">
-        <v>34.48275862068966</v>
+        <v>34.39153439153439</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -979,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="E28">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F28">
-        <v>7.427055702917771</v>
+        <v>7.407407407407407</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -999,10 +999,10 @@
         <v>25</v>
       </c>
       <c r="E29">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F29">
-        <v>6.631299734748011</v>
+        <v>6.613756613756613</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1019,10 +1019,10 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F30">
-        <v>4.774535809018567</v>
+        <v>4.761904761904762</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1039,10 +1039,10 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F31">
-        <v>3.183023872679045</v>
+        <v>3.174603174603174</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F32">
-        <v>2.917771883289125</v>
+        <v>2.91005291005291</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1079,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F33">
-        <v>2.387267904509284</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1099,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F34">
-        <v>2.122015915119363</v>
+        <v>2.116402116402116</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1119,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F35">
-        <v>1.591511936339522</v>
+        <v>1.587301587301587</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F37">
         <v>0</v>

--- a/bib_data/1990-2017/all_years [Nodes]_cluster_totals.xlsx
+++ b/bib_data/1990-2017/all_years [Nodes]_cluster_totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
   <si>
     <t>cluster</t>
   </si>
@@ -31,7 +31,40 @@
     <t>prop</t>
   </si>
   <si>
+    <t>Afforestation/reforestation</t>
+  </si>
+  <si>
+    <t>Soil Carbon Sequestration</t>
+  </si>
+  <si>
     <t>BECCS</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Direct Air Capture</t>
+  </si>
+  <si>
+    <t>Biochar</t>
+  </si>
+  <si>
+    <t>Ethics &amp; Morals</t>
+  </si>
+  <si>
+    <t>Ocean fertilisation</t>
+  </si>
+  <si>
+    <t>Enhanced Weathering</t>
+  </si>
+  <si>
+    <t>Ocean Alkalinisation</t>
+  </si>
+  <si>
+    <t>Blue Carbon</t>
+  </si>
+  <si>
+    <t>Bioenergy</t>
   </si>
 </sst>
 </file>
@@ -389,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,146 +456,1912 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>247</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>35.22267206477733</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>20.64777327935223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>14.97975708502024</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>13.76518218623482</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="F6">
+        <v>12.55060728744939</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>2.024291497975709</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>0.8097165991902834</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>247</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>247</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>247</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>247</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>247</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D14">
+        <v>294</v>
+      </c>
+      <c r="E14">
+        <v>353</v>
+      </c>
+      <c r="F14">
+        <v>83.28611898016997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>353</v>
+      </c>
+      <c r="F15">
+        <v>14.1643059490085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>353</v>
+      </c>
+      <c r="F16">
+        <v>1.13314447592068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>353</v>
+      </c>
+      <c r="F17">
+        <v>0.56657223796034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>353</v>
+      </c>
+      <c r="F18">
+        <v>0.56657223796034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>353</v>
+      </c>
+      <c r="F19">
+        <v>0.28328611898017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>353</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>353</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>353</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>353</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>353</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>353</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>134</v>
+      </c>
+      <c r="E26">
+        <v>391</v>
+      </c>
+      <c r="F26">
+        <v>34.27109974424553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>133</v>
+      </c>
+      <c r="E27">
+        <v>391</v>
+      </c>
+      <c r="F27">
+        <v>34.01534526854221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>391</v>
+      </c>
+      <c r="F28">
+        <v>7.161125319693094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>391</v>
+      </c>
+      <c r="F29">
+        <v>6.905370843989769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>391</v>
+      </c>
+      <c r="F30">
+        <v>4.603580562659847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>391</v>
+      </c>
+      <c r="F31">
+        <v>3.580562659846547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>391</v>
+      </c>
+      <c r="F32">
+        <v>3.069053708439898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>391</v>
+      </c>
+      <c r="F33">
+        <v>2.301790281329923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>391</v>
+      </c>
+      <c r="F34">
+        <v>2.301790281329923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>391</v>
+      </c>
+      <c r="F35">
+        <v>1.790281329923274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>391</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>391</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>284</v>
+      </c>
+      <c r="F38">
+        <v>89.78873239436621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>284</v>
+      </c>
+      <c r="F39">
+        <v>7.394366197183098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>284</v>
+      </c>
+      <c r="F40">
+        <v>1.056338028169014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>284</v>
+      </c>
+      <c r="F41">
+        <v>0.7042253521126761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>284</v>
+      </c>
+      <c r="F42">
+        <v>0.3521126760563381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>284</v>
+      </c>
+      <c r="F43">
+        <v>0.3521126760563381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>284</v>
+      </c>
+      <c r="F44">
+        <v>0.3521126760563381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>284</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>284</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>284</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>284</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>284</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>157</v>
+      </c>
+      <c r="E50">
+        <v>169</v>
+      </c>
+      <c r="F50">
+        <v>92.89940828402366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>169</v>
+      </c>
+      <c r="F51">
+        <v>5.325443786982249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>169</v>
+      </c>
+      <c r="F52">
+        <v>1.183431952662722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>169</v>
+      </c>
+      <c r="F53">
+        <v>0.591715976331361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>169</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>169</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>169</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>169</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>169</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>169</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>169</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>169</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>137</v>
+      </c>
+      <c r="E62">
+        <v>145</v>
+      </c>
+      <c r="F62">
+        <v>94.48275862068965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>145</v>
+      </c>
+      <c r="F63">
+        <v>4.827586206896552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>145</v>
+      </c>
+      <c r="F64">
+        <v>0.6896551724137931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>145</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>145</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>145</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>145</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>145</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>145</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>145</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>145</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>145</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>68</v>
+      </c>
+      <c r="E74">
+        <v>86</v>
+      </c>
+      <c r="F74">
+        <v>79.06976744186046</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>86</v>
+      </c>
+      <c r="F75">
+        <v>11.62790697674419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>86</v>
+      </c>
+      <c r="F76">
+        <v>6.976744186046512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>86</v>
+      </c>
+      <c r="F77">
+        <v>1.162790697674419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>86</v>
+      </c>
+      <c r="F78">
+        <v>1.162790697674419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>86</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>75</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>86</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>76</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>86</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>77</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>86</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>78</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>86</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>79</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>86</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>86</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
         <v>0</v>
       </c>
     </row>
